--- a/ExecutionTimes.xlsx
+++ b/ExecutionTimes.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17329"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -81,8 +81,2944 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Sort</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Times Up to 16384 Elements</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Merge Sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16384</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>6.0859140000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.289318E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.306071E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.236146E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.389824E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.370071E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.649775E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.034859E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.3723341999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.1736250000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.1099120000000003E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2324-4005-A6F0-139A912B624F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Radix Sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16384</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.1797705000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.7939640000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.9112040000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.4908590000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.4616239999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.405232E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.795552E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.5323339999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1148620000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.565231E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.3993059999999999E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2324-4005-A6F0-139A912B624F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Bitonic Sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16384</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>7.7787500000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.4192500000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.0864099999999996E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.4227E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.2941189999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.5136719999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.84928E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.4863399999999994E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.6909459999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.040393E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.3233534E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2324-4005-A6F0-139A912B624F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Quick Sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16384</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.0334789999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.886811E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.2565879999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.7661159999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.8183639999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.6565829999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.5056620000000006E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1734494999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.458087E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5782211000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.6811817999999999E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-2324-4005-A6F0-139A912B624F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="567987552"/>
+        <c:axId val="567990176"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="567987552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="567990176"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="567990176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="567987552"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Performance</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Drop with Large Sets</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Merge Sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>524288</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>6.0859140000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.289318E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.306071E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.236146E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.389824E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.370071E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.649775E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.034859E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.3723341999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.1736250000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.1099120000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.9270059999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.885819E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.4468989999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.7430484E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.2156775999999998E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F310-49DB-88B4-B4A651E9A31A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Radix Sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>524288</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1.1797705000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.7939640000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.9112040000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.4908590000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.4616239999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.405232E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.795552E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.5323339999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1148620000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.565231E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.3993059999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.1984130000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.3997009999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.628441E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.0946129999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.7235499999999999E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F310-49DB-88B4-B4A651E9A31A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Bitonic Sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>524288</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>7.7787500000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.4192500000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.0864099999999996E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.4227E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.2941189999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.5136719999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.84928E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.4863399999999994E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.6909459999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.040393E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.3233534E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.0095564999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.583392E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.101689873</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.223577633</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.41877211199999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F310-49DB-88B4-B4A651E9A31A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Quick Sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>524288</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1.0334789999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.886811E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.2565879999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.7661159999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.8183639999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.6565829999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.5056620000000006E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1734494999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.458087E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5782211000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.6811817999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.117267521</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.45716136800000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.055400187</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.3740409409999996</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>29.181012976000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-F310-49DB-88B4-B4A651E9A31A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Brick Sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>524288</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>4.5396459999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.9323279999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.2517288999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.0894693999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.114964712</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.245548552</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.54325581499999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.203003649</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.6611427929999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.0342016110000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14.782366850000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42.810247881000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>142.74022806900001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-F310-49DB-88B4-B4A651E9A31A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="303561504"/>
+        <c:axId val="460836376"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="303561504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="460836376"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="460836376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="303561504"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>111918</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>2381</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>130968</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>30956</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50478D99-1A3E-40FD-812E-A533BCD5EE61}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>354805</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>7143</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>292892</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>35718</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F789733B-CF6D-44FC-94A7-3CCA00B54489}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -128,7 +3064,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -161,9 +3097,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -196,6 +3149,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -372,23 +3342,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.140625" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1"/>
-    <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" customWidth="1"/>
+    <col min="1" max="1" width="17.1328125" customWidth="1"/>
+    <col min="2" max="2" width="16.73046875" customWidth="1"/>
+    <col min="3" max="3" width="14.73046875" customWidth="1"/>
+    <col min="4" max="4" width="15.1328125" customWidth="1"/>
+    <col min="5" max="5" width="14.59765625" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -396,163 +3366,347 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>16</v>
       </c>
+      <c r="B2">
+        <v>6.0859140000000004E-3</v>
+      </c>
+      <c r="C2">
+        <v>1.1797705000000001E-3</v>
+      </c>
+      <c r="D2">
+        <v>7.7787500000000001E-3</v>
+      </c>
+      <c r="E2">
+        <v>1.0334789999999999E-3</v>
+      </c>
+      <c r="F2">
+        <v>4.5396459999999996E-3</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3">
-        <f>A2*2</f>
+        <f t="shared" ref="A3:A17" si="0">A2*2</f>
         <v>32</v>
       </c>
+      <c r="B3">
+        <v>1.289318E-3</v>
+      </c>
+      <c r="C3">
+        <v>5.7939640000000004E-3</v>
+      </c>
+      <c r="D3">
+        <v>7.4192500000000005E-4</v>
+      </c>
+      <c r="E3">
+        <v>1.886811E-3</v>
+      </c>
+      <c r="F3">
+        <v>8.9323279999999998E-3</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4">
-        <f>A3*2</f>
+        <f t="shared" si="0"/>
         <v>64</v>
       </c>
+      <c r="B4">
+        <v>1.306071E-3</v>
+      </c>
+      <c r="C4">
+        <v>2.9112040000000001E-3</v>
+      </c>
+      <c r="D4">
+        <v>9.0864099999999996E-4</v>
+      </c>
+      <c r="E4">
+        <v>2.2565879999999999E-3</v>
+      </c>
+      <c r="F4">
+        <v>2.2517288999999999E-2</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5">
-        <f>A4*2</f>
+        <f t="shared" si="0"/>
         <v>128</v>
       </c>
+      <c r="B5">
+        <v>1.236146E-3</v>
+      </c>
+      <c r="C5">
+        <v>2.4908590000000002E-3</v>
+      </c>
+      <c r="D5">
+        <v>8.4227E-4</v>
+      </c>
+      <c r="E5">
+        <v>3.7661159999999999E-3</v>
+      </c>
+      <c r="F5">
+        <v>6.0894693999999999E-2</v>
+      </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6">
-        <f>A5*2</f>
+        <f t="shared" si="0"/>
         <v>256</v>
       </c>
+      <c r="B6">
+        <v>1.389824E-3</v>
+      </c>
+      <c r="C6">
+        <v>2.4616239999999999E-3</v>
+      </c>
+      <c r="D6">
+        <v>2.2941189999999998E-3</v>
+      </c>
+      <c r="E6">
+        <v>2.8183639999999999E-3</v>
+      </c>
+      <c r="F6">
+        <v>0.114964712</v>
+      </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7">
-        <f>A6*2</f>
+        <f t="shared" si="0"/>
         <v>512</v>
       </c>
+      <c r="B7">
+        <v>1.370071E-3</v>
+      </c>
+      <c r="C7">
+        <v>1.405232E-3</v>
+      </c>
+      <c r="D7">
+        <v>3.5136719999999998E-3</v>
+      </c>
+      <c r="E7">
+        <v>4.6565829999999997E-3</v>
+      </c>
+      <c r="F7">
+        <v>0.245548552</v>
+      </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8">
-        <f>A7*2</f>
+        <f t="shared" si="0"/>
         <v>1024</v>
       </c>
+      <c r="B8">
+        <v>1.649775E-3</v>
+      </c>
+      <c r="C8">
+        <v>1.795552E-3</v>
+      </c>
+      <c r="D8">
+        <v>1.84928E-3</v>
+      </c>
+      <c r="E8">
+        <v>8.5056620000000006E-3</v>
+      </c>
+      <c r="F8">
+        <v>0.54325581499999998</v>
+      </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9">
-        <f>A8*2</f>
+        <f t="shared" si="0"/>
         <v>2048</v>
       </c>
+      <c r="B9">
+        <v>3.034859E-3</v>
+      </c>
+      <c r="C9">
+        <v>2.5323339999999998E-3</v>
+      </c>
+      <c r="D9">
+        <v>9.4863399999999994E-3</v>
+      </c>
+      <c r="E9">
+        <v>1.1734494999999999E-2</v>
+      </c>
+      <c r="F9">
+        <v>1.203003649</v>
+      </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10">
-        <f>A9*2</f>
+        <f t="shared" si="0"/>
         <v>4096</v>
       </c>
+      <c r="B10">
+        <v>2.3723341999999999E-3</v>
+      </c>
+      <c r="C10">
+        <v>1.1148620000000001E-3</v>
+      </c>
+      <c r="D10">
+        <v>8.6909459999999997E-3</v>
+      </c>
+      <c r="E10">
+        <v>3.458087E-2</v>
+      </c>
+      <c r="F10">
+        <v>2.6611427929999998</v>
+      </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11">
-        <f>A10*2</f>
+        <f t="shared" si="0"/>
         <v>8192</v>
       </c>
+      <c r="B11">
+        <v>2.1736250000000002E-3</v>
+      </c>
+      <c r="C11">
+        <v>1.565231E-3</v>
+      </c>
+      <c r="D11">
+        <v>1.040393E-2</v>
+      </c>
+      <c r="E11">
+        <v>4.5782211000000003E-2</v>
+      </c>
+      <c r="F11">
+        <v>6.0342016110000003</v>
+      </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12">
-        <f>A11*2</f>
+        <f t="shared" si="0"/>
         <v>16384</v>
       </c>
+      <c r="B12">
+        <v>7.1099120000000003E-3</v>
+      </c>
+      <c r="C12">
+        <v>1.3993059999999999E-3</v>
+      </c>
+      <c r="D12">
+        <v>2.3233534E-2</v>
+      </c>
+      <c r="E12">
+        <v>1.6811817999999999E-2</v>
+      </c>
+      <c r="F12">
+        <v>14.782366850000001</v>
+      </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13">
-        <f>A12*2</f>
+        <f t="shared" si="0"/>
         <v>32768</v>
       </c>
+      <c r="B13">
+        <v>2.9270059999999998E-3</v>
+      </c>
+      <c r="C13">
+        <v>3.1984130000000002E-3</v>
+      </c>
+      <c r="D13">
+        <v>2.0095564999999999E-2</v>
+      </c>
+      <c r="E13">
+        <v>0.117267521</v>
+      </c>
+      <c r="F13">
+        <v>42.810247881000002</v>
+      </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14">
-        <f>A13*2</f>
+        <f t="shared" si="0"/>
         <v>65536</v>
       </c>
+      <c r="B14">
+        <v>3.885819E-3</v>
+      </c>
+      <c r="C14">
+        <v>1.3997009999999999E-3</v>
+      </c>
+      <c r="D14">
+        <v>4.583392E-2</v>
+      </c>
+      <c r="E14">
+        <v>0.45716136800000001</v>
+      </c>
+      <c r="F14">
+        <v>142.74022806900001</v>
+      </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15">
-        <f>A14*2</f>
+        <f t="shared" si="0"/>
         <v>131072</v>
       </c>
+      <c r="B15">
+        <v>7.4468989999999999E-3</v>
+      </c>
+      <c r="C15">
+        <v>1.628441E-3</v>
+      </c>
+      <c r="D15">
+        <v>0.101689873</v>
+      </c>
+      <c r="E15">
+        <v>2.055400187</v>
+      </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16">
-        <f>A15*2</f>
+        <f t="shared" si="0"/>
         <v>262144</v>
       </c>
+      <c r="B16">
+        <v>1.7430484E-2</v>
+      </c>
+      <c r="C16">
+        <v>2.0946129999999999E-3</v>
+      </c>
+      <c r="D16">
+        <v>0.223577633</v>
+      </c>
+      <c r="E16">
+        <v>7.3740409409999996</v>
+      </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17">
-        <f>A16*2</f>
+        <f t="shared" si="0"/>
         <v>524288</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <f>A17*2</f>
-        <v>1048576</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <f>A18*2</f>
-        <v>2097152</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <f>A19*2</f>
-        <v>4194304</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <f>A20*2</f>
-        <v>8388608</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <f>A21*2</f>
-        <v>16777216</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <f>A22*2</f>
-        <v>33554432</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <f>A23*2</f>
-        <v>67108864</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <f>A24*2</f>
-        <v>134217728</v>
+      <c r="B17">
+        <v>3.2156775999999998E-2</v>
+      </c>
+      <c r="C17">
+        <v>2.7235499999999999E-3</v>
+      </c>
+      <c r="D17">
+        <v>0.41877211199999997</v>
+      </c>
+      <c r="E17">
+        <v>29.181012976000002</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -562,7 +3716,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -574,7 +3728,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
